--- a/biology/Botanique/Reinette_étoilée/Reinette_étoilée.xlsx
+++ b/biology/Botanique/Reinette_étoilée/Reinette_étoilée.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Reinette_%C3%A9toil%C3%A9e</t>
+          <t>Reinette_étoilée</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Reinette étoilée est un cultivar du pommier domestique.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Reinette_%C3%A9toil%C3%A9e</t>
+          <t>Reinette_étoilée</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Elle a pour synonymes : 
 Reinette rouge étoilée,
@@ -521,7 +535,7 @@
 Sternrenette,
 Reinette Rouge étoilée,
 Rote Stern Renette,
-Sterrenet[1].</t>
+Sterrenet.</t>
         </is>
       </c>
     </row>
@@ -531,7 +545,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Reinette_%C3%A9toil%C3%A9e</t>
+          <t>Reinette_étoilée</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -549,14 +563,16 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Peau: rouge avec une multitude de lenticelles.
 Usage: pomme à couteau ou à cuire.
 Calibre: moyen.
 Chair: blanc rosé.
 Saveur: particulière, acidulée et sucrée.
-Vitamine C: teneur faible (3-14 mg/100g)[2].</t>
+Vitamine C: teneur faible (3-14 mg/100g).</t>
         </is>
       </c>
     </row>
@@ -566,7 +582,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Reinette_%C3%A9toil%C3%A9e</t>
+          <t>Reinette_étoilée</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -584,7 +600,9 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle a été créée probablement dans les environs de Maastricht à la fin du XVIIe siècle. Elle aurait été curieusement obtenue vers 1800 par Jean-Baptiste Van Mons (Louvain, Belgique) grâce au croisement d'espèces encore inconnues…
 Elle doit son nom aux larges points étoilés constellant sa peau et à la belle étoile rouge qui apparaît au centre lorsqu'on coupe le fruit par le diamètre.
@@ -598,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Reinette_%C3%A9toil%C3%A9e</t>
+          <t>Reinette_étoilée</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -616,7 +634,9 @@
           <t>Parenté</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Descendants : Atlanta (Reinette étoilée x Cox's Orange Pippin)</t>
         </is>
@@ -628,7 +648,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Reinette_%C3%A9toil%C3%A9e</t>
+          <t>Reinette_étoilée</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -646,11 +666,13 @@
           <t>Pollinisation</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Variété diploïde et autostérile, donc susceptible de fournir du pollen compatible avec les allèles de certains autres pommiers.
 Pollinisateurs : Belle fleur double, Cox's Orange Pippin, Ontario, James Grieve, Glorie Van Holland,…
-S-génotype : S1S2[3].</t>
+S-génotype : S1S2.</t>
         </is>
       </c>
     </row>
@@ -660,7 +682,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Reinette_%C3%A9toil%C3%A9e</t>
+          <t>Reinette_étoilée</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -678,7 +700,9 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">La variété est vigoureuse et très fertile mais très peu répandue.
 Les fruits sont matures en novembre et se conservent au fruitier jusque début février.
